--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1328526.94501898</v>
+        <v>1273575.055734883</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013175</v>
+        <v>408938.3872013179</v>
       </c>
     </row>
     <row r="8">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>212.5658372004198</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2779548450047</v>
+        <v>73.72105314908161</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>104.4504115547735</v>
+        <v>104.4504115547736</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>161.5773014157427</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -1463,13 +1463,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350707</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>86.89603752886887</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>30.23830610552756</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>4.376832222376643</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58429473553586</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>7.226885210985436</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>214.0920521918433</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>119.3535308445056</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>32.96647199457762</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -1703,10 +1703,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350707</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886887</v>
       </c>
       <c r="S15" t="n">
         <v>177.283526739121</v>
@@ -1742,7 +1742,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>24.17164315973716</v>
       </c>
     </row>
     <row r="16">
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.0001043529485</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>7.226885210985416</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>326.21898401466</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
         <v>403.1992496400135</v>
@@ -1861,10 +1861,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>90.24152158232536</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
-        <v>118.2964226714636</v>
+        <v>117.6608365168673</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350707</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1982,13 +1982,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>22.70042032133687</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>123.14340038001</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>7.226885210985381</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>52.45816323286396</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>201.9479912440774</v>
       </c>
     </row>
     <row r="21">
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>177.283526739121</v>
+        <v>120.8192923799195</v>
       </c>
       <c r="T21" t="n">
         <v>211.8662302997449</v>
@@ -2219,13 +2219,13 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
-        <v>136.7121120094613</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>129.482578516696</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>52.42857711587082</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>87.63319326612931</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>205.6762241535574</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -2399,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>113.3761055335292</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>177.283526739121</v>
+        <v>79.99132866338525</v>
       </c>
       <c r="T24" t="n">
         <v>211.8662302997449</v>
@@ -2462,10 +2462,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>48.55910564447418</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58429473553586</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>7.226885210985606</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>123.1180927142198</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>288.1890095467107</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>382.2855674184499</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -2645,10 +2645,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2684,22 +2684,22 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>61.50395316990918</v>
+        <v>71.05236960868611</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>16.93456886964948</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>8.916258666857072</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>11.86198976416016</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.1639724458418</v>
+        <v>129.442478798958</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.3839424191305</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>56.243404031769</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>52.4285771158712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>75.61813689207855</v>
       </c>
       <c r="V31" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>205.2796403411951</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>274.6666882546863</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,25 +3110,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8662302997449</v>
+        <v>65.98093910265398</v>
       </c>
       <c r="U33" t="n">
         <v>237.1773944157285</v>
@@ -3170,13 +3170,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>111.4570456636073</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>123.14340038001</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>8.916258666856974</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
         <v>403.1992496400135</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>332.2779548450047</v>
+        <v>0.5122264268217525</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
         <v>194.7117974622146</v>
@@ -3322,7 +3322,7 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
-        <v>144.1635951982271</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3347,19 +3347,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>147.9743432409925</v>
+        <v>67.49388611222848</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3404,13 +3404,13 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>39.31639583066708</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>119.920671635353</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>7.226885210985831</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>325.917674930872</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>50.4810600533181</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
         <v>382.2855674184499</v>
@@ -3584,7 +3584,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -3596,10 +3596,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>22.26660265678114</v>
+        <v>105.5314066529867</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
         <v>80.84345120350706</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3644,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T40" t="n">
-        <v>8.916258666857072</v>
+        <v>73.35340349906454</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>184.6787338458753</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>196.076905081728</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>25.58679305067379</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>115.0797766911806</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>129.4825785166958</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>16.93456886964942</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.4504115547735</v>
+        <v>14.82078085500023</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>5.604600014044515</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -4070,13 +4070,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>143.1394415606376</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>132.794610800085</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>131.0804113283488</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>75.61813689207855</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1413.548593210149</v>
+        <v>1246.810293379348</v>
       </c>
       <c r="C11" t="n">
-        <v>1413.548593210149</v>
+        <v>1246.810293379348</v>
       </c>
       <c r="D11" t="n">
-        <v>1413.548593210149</v>
+        <v>905.6262937407344</v>
       </c>
       <c r="E11" t="n">
-        <v>1198.835626341038</v>
+        <v>530.3950694360514</v>
       </c>
       <c r="F11" t="n">
-        <v>791.5636570076908</v>
+        <v>530.3950694360514</v>
       </c>
       <c r="G11" t="n">
-        <v>369.9489506776823</v>
+        <v>108.7803631060427</v>
       </c>
       <c r="H11" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="I11" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602939</v>
       </c>
       <c r="K11" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193744</v>
       </c>
       <c r="L11" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389712</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292779</v>
+        <v>856.646000929277</v>
       </c>
       <c r="N11" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O11" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.632785841148</v>
       </c>
       <c r="P11" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716934</v>
       </c>
       <c r="Q11" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R11" t="n">
-        <v>1610.227176505315</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="S11" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="T11" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="U11" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="V11" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="W11" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="X11" t="n">
-        <v>1413.548593210149</v>
+        <v>1246.810293379348</v>
       </c>
       <c r="Y11" t="n">
-        <v>1413.548593210149</v>
+        <v>1246.810293379348</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1069.118384851047</v>
+        <v>800.1580152425054</v>
       </c>
       <c r="C12" t="n">
-        <v>879.7061105840106</v>
+        <v>610.7457409754691</v>
       </c>
       <c r="D12" t="n">
-        <v>718.9259943450423</v>
+        <v>449.9656247365008</v>
       </c>
       <c r="E12" t="n">
-        <v>545.3627904664568</v>
+        <v>276.4024208579153</v>
       </c>
       <c r="F12" t="n">
-        <v>384.9350741837009</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="G12" t="n">
-        <v>235.4660406069408</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H12" t="n">
         <v>115.9747045751594</v>
       </c>
       <c r="I12" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025867</v>
+        <v>54.4093011102586</v>
       </c>
       <c r="K12" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944625</v>
       </c>
       <c r="L12" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498405</v>
       </c>
       <c r="M12" t="n">
-        <v>873.305863297421</v>
+        <v>770.125479802902</v>
       </c>
       <c r="N12" t="n">
-        <v>1276.539627797432</v>
+        <v>1173.359244302913</v>
       </c>
       <c r="O12" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349807</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Q12" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R12" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440571</v>
       </c>
       <c r="S12" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007115</v>
       </c>
       <c r="T12" t="n">
-        <v>1501.726349490192</v>
+        <v>1234.87830477505</v>
       </c>
       <c r="U12" t="n">
-        <v>1501.726349490192</v>
+        <v>1204.334561234113</v>
       </c>
       <c r="V12" t="n">
-        <v>1501.726349490192</v>
+        <v>1204.334561234113</v>
       </c>
       <c r="W12" t="n">
-        <v>1232.327780220484</v>
+        <v>1204.334561234113</v>
       </c>
       <c r="X12" t="n">
-        <v>1232.327780220484</v>
+        <v>1204.334561234113</v>
       </c>
       <c r="Y12" t="n">
-        <v>1232.327780220484</v>
+        <v>978.6938681694405</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260.97555818097</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="C13" t="n">
-        <v>260.97555818097</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="D13" t="n">
-        <v>260.97555818097</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="E13" t="n">
-        <v>260.97555818097</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="F13" t="n">
-        <v>260.97555818097</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="G13" t="n">
-        <v>260.97555818097</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="H13" t="n">
-        <v>256.5545155321047</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="I13" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="J13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="K13" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514563</v>
       </c>
       <c r="L13" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306431</v>
       </c>
       <c r="M13" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662942</v>
       </c>
       <c r="N13" t="n">
-        <v>262.1720788316463</v>
+        <v>262.172078831646</v>
       </c>
       <c r="O13" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098952</v>
       </c>
       <c r="P13" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="R13" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="S13" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="T13" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="U13" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="V13" t="n">
-        <v>260.97555818097</v>
+        <v>327.5577913285212</v>
       </c>
       <c r="W13" t="n">
-        <v>260.97555818097</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="X13" t="n">
-        <v>260.97555818097</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.97555818097</v>
+        <v>34.31465285444513</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>978.9465481215775</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="C14" t="n">
-        <v>978.9465481215775</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="D14" t="n">
-        <v>978.9465481215775</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="E14" t="n">
-        <v>978.9465481215775</v>
+        <v>455.9293591844537</v>
       </c>
       <c r="F14" t="n">
-        <v>978.9465481215775</v>
+        <v>455.9293591844537</v>
       </c>
       <c r="G14" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="I14" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602962</v>
       </c>
       <c r="K14" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193747</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389717</v>
+        <v>525.5283691389715</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292772</v>
       </c>
       <c r="N14" t="n">
         <v>1186.279026157782</v>
       </c>
       <c r="O14" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.632785841148</v>
       </c>
       <c r="P14" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716934</v>
       </c>
       <c r="Q14" t="n">
         <v>1715.732642722257</v>
       </c>
       <c r="R14" t="n">
-        <v>1610.227176505314</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S14" t="n">
-        <v>1413.548593210148</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="T14" t="n">
-        <v>1195.201146295157</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="U14" t="n">
-        <v>978.9465481215775</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="V14" t="n">
-        <v>978.9465481215775</v>
+        <v>1595.1735206571</v>
       </c>
       <c r="W14" t="n">
-        <v>978.9465481215775</v>
+        <v>1595.1735206571</v>
       </c>
       <c r="X14" t="n">
-        <v>978.9465481215775</v>
+        <v>1595.1735206571</v>
       </c>
       <c r="Y14" t="n">
-        <v>978.9465481215775</v>
+        <v>1209.026482860686</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>752.2254610062319</v>
+        <v>788.8469325802972</v>
       </c>
       <c r="C15" t="n">
-        <v>752.2254610062319</v>
+        <v>599.4346583132609</v>
       </c>
       <c r="D15" t="n">
-        <v>718.9259943450423</v>
+        <v>599.4346583132609</v>
       </c>
       <c r="E15" t="n">
-        <v>545.3627904664568</v>
+        <v>425.8714544346753</v>
       </c>
       <c r="F15" t="n">
-        <v>384.9350741837009</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G15" t="n">
-        <v>235.4660406069408</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H15" t="n">
         <v>115.9747045751594</v>
       </c>
       <c r="I15" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="J15" t="n">
-        <v>54.40930111025866</v>
+        <v>54.4093011102586</v>
       </c>
       <c r="K15" t="n">
-        <v>112.3287381944626</v>
+        <v>215.5091216889812</v>
       </c>
       <c r="L15" t="n">
-        <v>395.2338702498408</v>
+        <v>498.4142537443593</v>
       </c>
       <c r="M15" t="n">
-        <v>770.1254798029023</v>
+        <v>679.5863020207046</v>
       </c>
       <c r="N15" t="n">
-        <v>1173.359244302913</v>
+        <v>1082.820066520715</v>
       </c>
       <c r="O15" t="n">
-        <v>1486.492278349807</v>
+        <v>1395.953100567609</v>
       </c>
       <c r="P15" t="n">
-        <v>1715.732642722257</v>
+        <v>1625.193464940059</v>
       </c>
       <c r="Q15" t="n">
         <v>1715.732642722257</v>
       </c>
       <c r="R15" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440571</v>
       </c>
       <c r="S15" t="n">
-        <v>1448.884598007116</v>
+        <v>1448.884598007115</v>
       </c>
       <c r="T15" t="n">
-        <v>1234.878304775051</v>
+        <v>1234.87830477505</v>
       </c>
       <c r="U15" t="n">
-        <v>995.3051791025978</v>
+        <v>1234.87830477505</v>
       </c>
       <c r="V15" t="n">
-        <v>752.2254610062319</v>
+        <v>991.7985866786839</v>
       </c>
       <c r="W15" t="n">
-        <v>752.2254610062319</v>
+        <v>991.7985866786839</v>
       </c>
       <c r="X15" t="n">
-        <v>752.2254610062319</v>
+        <v>991.7985866786839</v>
       </c>
       <c r="Y15" t="n">
-        <v>752.2254610062319</v>
+        <v>967.3827855072323</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="C16" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="D16" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="E16" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="F16" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="G16" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="H16" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="I16" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="J16" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="K16" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514564</v>
       </c>
       <c r="L16" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306431</v>
       </c>
       <c r="M16" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662942</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316463</v>
+        <v>262.172078831646</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098952</v>
       </c>
       <c r="P16" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="R16" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="S16" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="T16" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="U16" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="V16" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="W16" t="n">
-        <v>84.81980876651434</v>
+        <v>41.61453690594556</v>
       </c>
       <c r="X16" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444514</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1715.732642722258</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="C17" t="n">
-        <v>1715.732642722258</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="D17" t="n">
-        <v>1715.732642722258</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="E17" t="n">
-        <v>1386.218517454924</v>
+        <v>863.2013285178007</v>
       </c>
       <c r="F17" t="n">
-        <v>978.9465481215775</v>
+        <v>455.9293591844537</v>
       </c>
       <c r="G17" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="H17" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="I17" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602962</v>
       </c>
       <c r="K17" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193746</v>
       </c>
       <c r="L17" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389714</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292772</v>
       </c>
       <c r="N17" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O17" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.632785841148</v>
       </c>
       <c r="P17" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716934</v>
       </c>
       <c r="Q17" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R17" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S17" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="T17" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="U17" t="n">
-        <v>1715.732642722258</v>
+        <v>1624.579590618898</v>
       </c>
       <c r="V17" t="n">
-        <v>1715.732642722258</v>
+        <v>1624.579590618898</v>
       </c>
       <c r="W17" t="n">
-        <v>1715.732642722258</v>
+        <v>1624.579590618898</v>
       </c>
       <c r="X17" t="n">
-        <v>1715.732642722258</v>
+        <v>1624.579590618898</v>
       </c>
       <c r="Y17" t="n">
-        <v>1715.732642722258</v>
+        <v>1238.432552822484</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1069.118384851047</v>
+        <v>1068.476378634283</v>
       </c>
       <c r="C18" t="n">
-        <v>879.7061105840106</v>
+        <v>879.0641043672467</v>
       </c>
       <c r="D18" t="n">
-        <v>718.9259943450423</v>
+        <v>718.2839881282785</v>
       </c>
       <c r="E18" t="n">
-        <v>545.3627904664568</v>
+        <v>544.7207842496929</v>
       </c>
       <c r="F18" t="n">
-        <v>384.9350741837009</v>
+        <v>384.293067966937</v>
       </c>
       <c r="G18" t="n">
-        <v>235.4660406069408</v>
+        <v>234.8240343901769</v>
       </c>
       <c r="H18" t="n">
         <v>115.9747045751594</v>
       </c>
       <c r="I18" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="J18" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025858</v>
       </c>
       <c r="K18" t="n">
-        <v>195.4144734331679</v>
+        <v>54.40930111025858</v>
       </c>
       <c r="L18" t="n">
-        <v>478.319605488546</v>
+        <v>337.3144331656366</v>
       </c>
       <c r="M18" t="n">
-        <v>853.2112150416076</v>
+        <v>712.206042718698</v>
       </c>
       <c r="N18" t="n">
-        <v>1256.444979541619</v>
+        <v>1115.439807218709</v>
       </c>
       <c r="O18" t="n">
-        <v>1569.578013588512</v>
+        <v>1428.572841265603</v>
       </c>
       <c r="P18" t="n">
-        <v>1625.19346494006</v>
+        <v>1657.813205638053</v>
       </c>
       <c r="Q18" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R18" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S18" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="T18" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="U18" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="V18" t="n">
-        <v>1715.732642722258</v>
+        <v>1472.652924625891</v>
       </c>
       <c r="W18" t="n">
-        <v>1692.802925225958</v>
+        <v>1472.652924625891</v>
       </c>
       <c r="X18" t="n">
-        <v>1473.294930842654</v>
+        <v>1472.652924625891</v>
       </c>
       <c r="Y18" t="n">
-        <v>1247.654237777982</v>
+        <v>1247.012231561218</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="C19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="D19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="E19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="F19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="G19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="H19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="I19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="J19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="K19" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514562</v>
       </c>
       <c r="L19" t="n">
-        <v>105.4471208306432</v>
+        <v>105.447120830643</v>
       </c>
       <c r="M19" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662941</v>
       </c>
       <c r="N19" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316459</v>
       </c>
       <c r="O19" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098951</v>
       </c>
       <c r="P19" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="Q19" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="R19" t="n">
-        <v>158.7019259655664</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="S19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="T19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="U19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="V19" t="n">
-        <v>34.31465285444516</v>
+        <v>327.5577913285212</v>
       </c>
       <c r="W19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="X19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.31465285444516</v>
+        <v>1511.744772778744</v>
       </c>
       <c r="C20" t="n">
-        <v>34.31465285444516</v>
+        <v>1158.001846131089</v>
       </c>
       <c r="D20" t="n">
-        <v>34.31465285444516</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="E20" t="n">
-        <v>34.31465285444516</v>
+        <v>441.5866221877921</v>
       </c>
       <c r="F20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="G20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="H20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="I20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602976</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193748</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389716</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292772</v>
       </c>
       <c r="N20" t="n">
         <v>1186.279026157782</v>
       </c>
       <c r="O20" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.632785841148</v>
       </c>
       <c r="P20" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716934</v>
       </c>
       <c r="Q20" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R20" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S20" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="T20" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="U20" t="n">
-        <v>1160.987610990983</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="V20" t="n">
-        <v>836.8666174463846</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="W20" t="n">
-        <v>836.8666174463846</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="X20" t="n">
-        <v>473.4497343204188</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Y20" t="n">
-        <v>87.30269652400472</v>
+        <v>1511.744772778744</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>368.3055730157866</v>
+        <v>718.4979635217911</v>
       </c>
       <c r="C21" t="n">
-        <v>368.3055730157866</v>
+        <v>529.0856892547548</v>
       </c>
       <c r="D21" t="n">
-        <v>368.3055730157866</v>
+        <v>368.3055730157865</v>
       </c>
       <c r="E21" t="n">
-        <v>194.7423691372011</v>
+        <v>194.742369137201</v>
       </c>
       <c r="F21" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="G21" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="H21" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="I21" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="J21" t="n">
-        <v>54.40930111025867</v>
+        <v>54.4093011102586</v>
       </c>
       <c r="K21" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944625</v>
       </c>
       <c r="L21" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498405</v>
       </c>
       <c r="M21" t="n">
-        <v>770.1254798029028</v>
+        <v>770.125479802902</v>
       </c>
       <c r="N21" t="n">
-        <v>1173.359244302914</v>
+        <v>1173.359244302913</v>
       </c>
       <c r="O21" t="n">
-        <v>1486.492278349808</v>
+        <v>1486.492278349807</v>
       </c>
       <c r="P21" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Q21" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R21" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S21" t="n">
-        <v>1448.884598007117</v>
+        <v>1593.692953449611</v>
       </c>
       <c r="T21" t="n">
-        <v>1234.878304775051</v>
+        <v>1379.686660217545</v>
       </c>
       <c r="U21" t="n">
-        <v>995.3051791025982</v>
+        <v>1140.113534545092</v>
       </c>
       <c r="V21" t="n">
-        <v>857.212136668799</v>
+        <v>897.0338164487262</v>
       </c>
       <c r="W21" t="n">
-        <v>587.8135673990903</v>
+        <v>897.0338164487262</v>
       </c>
       <c r="X21" t="n">
-        <v>368.3055730157866</v>
+        <v>897.0338164487262</v>
       </c>
       <c r="Y21" t="n">
-        <v>368.3055730157866</v>
+        <v>897.0338164487262</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="C22" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="D22" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="E22" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="F22" t="n">
-        <v>1584.94215937206</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="G22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="H22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="I22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="J22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="K22" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514563</v>
       </c>
       <c r="L22" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306431</v>
       </c>
       <c r="M22" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662942</v>
       </c>
       <c r="N22" t="n">
-        <v>1643.047046173882</v>
+        <v>262.172078831646</v>
       </c>
       <c r="O22" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098952</v>
       </c>
       <c r="P22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="Q22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="R22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="S22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800216</v>
       </c>
       <c r="T22" t="n">
-        <v>1715.732642722258</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="U22" t="n">
-        <v>1715.732642722258</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="V22" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="W22" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="X22" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444513</v>
       </c>
       <c r="Y22" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444513</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1507.978880950987</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C23" t="n">
-        <v>1507.978880950987</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D23" t="n">
-        <v>1166.794881312374</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E23" t="n">
-        <v>791.5636570076908</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F23" t="n">
-        <v>791.5636570076908</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G23" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H23" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I23" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602973</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292781</v>
       </c>
       <c r="N23" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O23" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P23" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q23" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1715.732642722257</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="S23" t="n">
-        <v>1715.732642722257</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="T23" t="n">
-        <v>1715.732642722257</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="U23" t="n">
-        <v>1507.978880950987</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="V23" t="n">
-        <v>1507.978880950987</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="W23" t="n">
-        <v>1507.978880950987</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="X23" t="n">
-        <v>1507.978880950987</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="Y23" t="n">
-        <v>1507.978880950987</v>
+        <v>1241.06722788935</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>482.8268917365232</v>
+        <v>223.7269271214814</v>
       </c>
       <c r="C24" t="n">
-        <v>482.8268917365232</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D24" t="n">
-        <v>482.8268917365232</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E24" t="n">
-        <v>309.2636878579376</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F24" t="n">
-        <v>148.8359715751817</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G24" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H24" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I24" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>34.31465285444515</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="K24" t="n">
-        <v>195.4144734331678</v>
+        <v>215.5091216889813</v>
       </c>
       <c r="L24" t="n">
-        <v>478.319605488546</v>
+        <v>498.4142537443594</v>
       </c>
       <c r="M24" t="n">
-        <v>853.2112150416076</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N24" t="n">
-        <v>1082.820066520716</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O24" t="n">
-        <v>1395.95310056761</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P24" t="n">
         <v>1625.19346494006</v>
       </c>
       <c r="Q24" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S24" t="n">
-        <v>1448.884598007116</v>
+        <v>1634.933320840051</v>
       </c>
       <c r="T24" t="n">
-        <v>1234.878304775051</v>
+        <v>1420.927027607985</v>
       </c>
       <c r="U24" t="n">
-        <v>995.3051791025978</v>
+        <v>1181.353901935532</v>
       </c>
       <c r="V24" t="n">
-        <v>752.2254610062319</v>
+        <v>938.2741838391661</v>
       </c>
       <c r="W24" t="n">
-        <v>482.8268917365232</v>
+        <v>668.8756145694574</v>
       </c>
       <c r="X24" t="n">
-        <v>482.8268917365232</v>
+        <v>449.3676201861538</v>
       </c>
       <c r="Y24" t="n">
-        <v>482.8268917365232</v>
+        <v>223.7269271214814</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>158.7019259655664</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C25" t="n">
-        <v>158.7019259655664</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D25" t="n">
-        <v>158.7019259655664</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E25" t="n">
-        <v>158.7019259655664</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F25" t="n">
-        <v>158.7019259655664</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>158.7019259655664</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>158.7019259655664</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L25" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306431</v>
       </c>
       <c r="M25" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N25" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O25" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098954</v>
       </c>
       <c r="P25" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="Q25" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="R25" t="n">
-        <v>158.7019259655664</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="S25" t="n">
-        <v>158.7019259655664</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="T25" t="n">
-        <v>158.7019259655664</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="U25" t="n">
-        <v>158.7019259655664</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V25" t="n">
-        <v>158.7019259655664</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W25" t="n">
-        <v>158.7019259655664</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X25" t="n">
-        <v>158.7019259655664</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y25" t="n">
-        <v>158.7019259655664</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>158.6763626667883</v>
+        <v>325.4146624975873</v>
       </c>
       <c r="C26" t="n">
-        <v>34.31465285444516</v>
+        <v>325.4146624975873</v>
       </c>
       <c r="D26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K26" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L26" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M26" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O26" t="n">
         <v>1460.632785841149</v>
@@ -6247,31 +6247,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q26" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R26" t="n">
-        <v>1610.227176505315</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="S26" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="T26" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="U26" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="V26" t="n">
-        <v>1286.106182960717</v>
+        <v>1089.42759966555</v>
       </c>
       <c r="W26" t="n">
-        <v>1286.106182960717</v>
+        <v>1089.42759966555</v>
       </c>
       <c r="X26" t="n">
-        <v>922.6892998347512</v>
+        <v>1089.42759966555</v>
       </c>
       <c r="Y26" t="n">
-        <v>536.5422620383372</v>
+        <v>703.2805618691361</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>707.5392808157953</v>
+        <v>718.4979635217911</v>
       </c>
       <c r="C27" t="n">
-        <v>518.127006548759</v>
+        <v>529.0856892547548</v>
       </c>
       <c r="D27" t="n">
-        <v>357.3468903097908</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E27" t="n">
-        <v>183.7836864312052</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F27" t="n">
-        <v>183.7836864312052</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J27" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025866</v>
       </c>
       <c r="K27" t="n">
-        <v>195.4144734331679</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L27" t="n">
-        <v>478.319605488546</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M27" t="n">
-        <v>853.2112150416076</v>
+        <v>679.5863020207049</v>
       </c>
       <c r="N27" t="n">
-        <v>1256.444979541619</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O27" t="n">
         <v>1395.95310056761</v>
@@ -6326,31 +6326,31 @@
         <v>1625.19346494006</v>
       </c>
       <c r="Q27" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R27" t="n">
         <v>1627.958867440572</v>
       </c>
       <c r="S27" t="n">
-        <v>1448.884598007117</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T27" t="n">
-        <v>1234.878304775051</v>
+        <v>1413.952574208506</v>
       </c>
       <c r="U27" t="n">
-        <v>995.3051791025982</v>
+        <v>1413.952574208506</v>
       </c>
       <c r="V27" t="n">
-        <v>933.1799738804677</v>
+        <v>1342.182503896702</v>
       </c>
       <c r="W27" t="n">
-        <v>933.1799738804677</v>
+        <v>1342.182503896702</v>
       </c>
       <c r="X27" t="n">
-        <v>933.1799738804677</v>
+        <v>1122.674509513399</v>
       </c>
       <c r="Y27" t="n">
-        <v>707.5392808157953</v>
+        <v>897.0338164487262</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="C28" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="D28" t="n">
-        <v>1415.189620196681</v>
+        <v>317.752050259164</v>
       </c>
       <c r="E28" t="n">
-        <v>1415.189620196681</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K28" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L28" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M28" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N28" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O28" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P28" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q28" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R28" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S28" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T28" t="n">
-        <v>1706.726320836544</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U28" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V28" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W28" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X28" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y28" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.6038111249159</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="C29" t="n">
-        <v>964.6038111249159</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="D29" t="n">
-        <v>964.6038111249159</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="E29" t="n">
-        <v>964.6038111249159</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="F29" t="n">
-        <v>557.3318417915689</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G29" t="n">
-        <v>557.3318417915689</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H29" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I29" t="n">
         <v>34.31465285444516</v>
@@ -6469,13 +6469,13 @@
         <v>253.897506719375</v>
       </c>
       <c r="L29" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N29" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O29" t="n">
         <v>1460.632785841149</v>
@@ -6487,28 +6487,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1703.750834879672</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S29" t="n">
-        <v>1507.072251584506</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T29" t="n">
-        <v>1288.724804669514</v>
+        <v>1584.982664137452</v>
       </c>
       <c r="U29" t="n">
-        <v>1288.724804669514</v>
+        <v>1584.982664137452</v>
       </c>
       <c r="V29" t="n">
-        <v>964.6038111249159</v>
+        <v>1584.982664137452</v>
       </c>
       <c r="W29" t="n">
-        <v>964.6038111249159</v>
+        <v>1584.982664137452</v>
       </c>
       <c r="X29" t="n">
-        <v>964.6038111249159</v>
+        <v>1584.982664137452</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.6038111249159</v>
+        <v>1198.835626341038</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>718.4979635217912</v>
+        <v>557.717847282823</v>
       </c>
       <c r="C30" t="n">
-        <v>529.0856892547549</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="D30" t="n">
         <v>368.3055730157866</v>
@@ -6542,7 +6542,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K30" t="n">
         <v>112.3287381944631</v>
@@ -6566,28 +6566,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S30" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T30" t="n">
-        <v>1448.884598007117</v>
+        <v>1515.344822096873</v>
       </c>
       <c r="U30" t="n">
-        <v>1448.884598007117</v>
+        <v>1515.344822096873</v>
       </c>
       <c r="V30" t="n">
-        <v>1392.073078783108</v>
+        <v>1272.265104000508</v>
       </c>
       <c r="W30" t="n">
-        <v>1122.674509513399</v>
+        <v>1002.866534730799</v>
       </c>
       <c r="X30" t="n">
-        <v>1122.674509513399</v>
+        <v>783.3585403474954</v>
       </c>
       <c r="Y30" t="n">
-        <v>897.0338164487264</v>
+        <v>557.717847282823</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C31" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D31" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E31" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F31" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G31" t="n">
         <v>34.31465285444516</v>
@@ -6654,19 +6654,19 @@
         <v>334.857675380022</v>
       </c>
       <c r="U31" t="n">
-        <v>334.857675380022</v>
+        <v>258.475718923377</v>
       </c>
       <c r="V31" t="n">
-        <v>87.27281155734536</v>
+        <v>258.475718923377</v>
       </c>
       <c r="W31" t="n">
-        <v>87.27281155734536</v>
+        <v>258.475718923377</v>
       </c>
       <c r="X31" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y31" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>221.6975439683318</v>
+        <v>652.9397517402165</v>
       </c>
       <c r="C32" t="n">
-        <v>221.6975439683318</v>
+        <v>652.9397517402165</v>
       </c>
       <c r="D32" t="n">
-        <v>221.6975439683318</v>
+        <v>311.755752101603</v>
       </c>
       <c r="E32" t="n">
-        <v>221.6975439683318</v>
+        <v>311.755752101603</v>
       </c>
       <c r="F32" t="n">
-        <v>221.6975439683318</v>
+        <v>311.755752101603</v>
       </c>
       <c r="G32" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H32" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I32" t="n">
         <v>34.31465285444516</v>
@@ -6730,22 +6730,22 @@
         <v>1610.227176505315</v>
       </c>
       <c r="T32" t="n">
-        <v>1391.879729590323</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U32" t="n">
-        <v>1139.318747371157</v>
+        <v>1357.666194286149</v>
       </c>
       <c r="V32" t="n">
-        <v>815.1977538265591</v>
+        <v>1357.666194286149</v>
       </c>
       <c r="W32" t="n">
-        <v>815.1977538265591</v>
+        <v>1016.356634866182</v>
       </c>
       <c r="X32" t="n">
-        <v>815.1977538265591</v>
+        <v>652.9397517402165</v>
       </c>
       <c r="Y32" t="n">
-        <v>429.050716030145</v>
+        <v>652.9397517402165</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>235.4660406069408</v>
+        <v>718.4979635217912</v>
       </c>
       <c r="C33" t="n">
-        <v>235.4660406069408</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="D33" t="n">
-        <v>235.4660406069408</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E33" t="n">
-        <v>235.4660406069408</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F33" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G33" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I33" t="n">
         <v>34.31465285444516</v>
@@ -6782,49 +6782,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K33" t="n">
-        <v>34.31465285444516</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L33" t="n">
-        <v>317.2197849098233</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M33" t="n">
-        <v>692.1113944628848</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N33" t="n">
-        <v>1095.345158962896</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O33" t="n">
-        <v>1408.47819300979</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P33" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q33" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R33" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S33" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T33" t="n">
-        <v>1234.878304775051</v>
+        <v>1649.085229487254</v>
       </c>
       <c r="U33" t="n">
-        <v>995.3051791025982</v>
+        <v>1409.512103814801</v>
       </c>
       <c r="V33" t="n">
-        <v>752.2254610062323</v>
+        <v>1166.432385718435</v>
       </c>
       <c r="W33" t="n">
-        <v>639.6425865985482</v>
+        <v>897.0338164487264</v>
       </c>
       <c r="X33" t="n">
-        <v>639.6425865985482</v>
+        <v>897.0338164487264</v>
       </c>
       <c r="Y33" t="n">
-        <v>414.0018935338759</v>
+        <v>897.0338164487264</v>
       </c>
     </row>
     <row r="34">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>158.7019259655664</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C34" t="n">
-        <v>158.7019259655664</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D34" t="n">
-        <v>158.7019259655664</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E34" t="n">
         <v>34.31465285444516</v>
@@ -6882,28 +6882,28 @@
         <v>334.857675380022</v>
       </c>
       <c r="R34" t="n">
-        <v>158.7019259655664</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S34" t="n">
-        <v>158.7019259655664</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T34" t="n">
-        <v>158.7019259655664</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U34" t="n">
-        <v>158.7019259655664</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="V34" t="n">
-        <v>158.7019259655664</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="W34" t="n">
-        <v>158.7019259655664</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X34" t="n">
-        <v>158.7019259655664</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y34" t="n">
-        <v>158.7019259655664</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>777.2209200110292</v>
+        <v>817.3352469236082</v>
       </c>
       <c r="C35" t="n">
-        <v>777.2209200110292</v>
+        <v>817.3352469236082</v>
       </c>
       <c r="D35" t="n">
-        <v>777.2209200110292</v>
+        <v>817.3352469236082</v>
       </c>
       <c r="E35" t="n">
-        <v>777.2209200110292</v>
+        <v>442.1040226189252</v>
       </c>
       <c r="F35" t="n">
-        <v>369.9489506776823</v>
+        <v>34.83205328557824</v>
       </c>
       <c r="G35" t="n">
-        <v>369.9489506776823</v>
+        <v>34.83205328557824</v>
       </c>
       <c r="H35" t="n">
         <v>34.31465285444516</v>
@@ -6937,52 +6937,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K35" t="n">
-        <v>253.8975067193755</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389726</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292787</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P35" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q35" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R35" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S35" t="n">
-        <v>1519.054059427092</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T35" t="n">
-        <v>1300.7066125121</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="U35" t="n">
-        <v>1155.086819382578</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="V35" t="n">
-        <v>1155.086819382578</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="W35" t="n">
-        <v>1155.086819382578</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="X35" t="n">
-        <v>1155.086819382578</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="Y35" t="n">
-        <v>1155.086819382578</v>
+        <v>1195.201146295157</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>533.9760769372098</v>
+        <v>597.2613317923594</v>
       </c>
       <c r="C36" t="n">
-        <v>344.5638026701735</v>
+        <v>597.2613317923594</v>
       </c>
       <c r="D36" t="n">
-        <v>183.7836864312053</v>
+        <v>436.4812155533912</v>
       </c>
       <c r="E36" t="n">
-        <v>183.7836864312053</v>
+        <v>262.9180116748056</v>
       </c>
       <c r="F36" t="n">
-        <v>183.7836864312053</v>
+        <v>102.4902953920497</v>
       </c>
       <c r="G36" t="n">
         <v>34.31465285444516</v>
@@ -7022,46 +7022,46 @@
         <v>195.4144734331679</v>
       </c>
       <c r="L36" t="n">
-        <v>304.6946924676443</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M36" t="n">
-        <v>679.5863020207058</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N36" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O36" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P36" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q36" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S36" t="n">
         <v>1448.884598007117</v>
       </c>
       <c r="T36" t="n">
-        <v>1234.878304775052</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U36" t="n">
-        <v>995.3051791025987</v>
+        <v>995.3051791025982</v>
       </c>
       <c r="V36" t="n">
-        <v>752.2254610062328</v>
+        <v>995.3051791025982</v>
       </c>
       <c r="W36" t="n">
-        <v>712.5119298641448</v>
+        <v>995.3051791025982</v>
       </c>
       <c r="X36" t="n">
-        <v>712.5119298641448</v>
+        <v>775.7971847192946</v>
       </c>
       <c r="Y36" t="n">
-        <v>712.5119298641448</v>
+        <v>775.7971847192946</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1415.189620196681</v>
+        <v>155.4466444053068</v>
       </c>
       <c r="C37" t="n">
-        <v>1415.189620196681</v>
+        <v>155.4466444053068</v>
       </c>
       <c r="D37" t="n">
-        <v>1415.189620196681</v>
+        <v>155.4466444053068</v>
       </c>
       <c r="E37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587382</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W37" t="n">
-        <v>1422.489504248182</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X37" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y37" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>699.1587233351287</v>
+        <v>860.6632555829356</v>
       </c>
       <c r="C38" t="n">
-        <v>699.1587233351287</v>
+        <v>506.9203289352802</v>
       </c>
       <c r="D38" t="n">
-        <v>369.9489506776823</v>
+        <v>506.9203289352802</v>
       </c>
       <c r="E38" t="n">
-        <v>369.9489506776823</v>
+        <v>506.9203289352802</v>
       </c>
       <c r="F38" t="n">
-        <v>369.9489506776823</v>
+        <v>506.9203289352802</v>
       </c>
       <c r="G38" t="n">
-        <v>369.9489506776823</v>
+        <v>85.30562260527154</v>
       </c>
       <c r="H38" t="n">
-        <v>34.31465285444516</v>
+        <v>85.30562260527154</v>
       </c>
       <c r="I38" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389726</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292787</v>
       </c>
       <c r="N38" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O38" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P38" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q38" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U38" t="n">
-        <v>1463.171660503092</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V38" t="n">
-        <v>1463.171660503092</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W38" t="n">
-        <v>1463.171660503092</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="X38" t="n">
-        <v>1463.171660503092</v>
+        <v>1246.81029337935</v>
       </c>
       <c r="Y38" t="n">
-        <v>1077.024622706678</v>
+        <v>860.6632555829356</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>822.6495330776379</v>
+        <v>836.8344574648129</v>
       </c>
       <c r="C39" t="n">
-        <v>633.2372588106016</v>
+        <v>836.8344574648129</v>
       </c>
       <c r="D39" t="n">
-        <v>472.4571425716333</v>
+        <v>676.0543412258446</v>
       </c>
       <c r="E39" t="n">
-        <v>298.8939386930477</v>
+        <v>502.491137347259</v>
       </c>
       <c r="F39" t="n">
-        <v>138.4662224102918</v>
+        <v>342.0634210645031</v>
       </c>
       <c r="G39" t="n">
-        <v>115.9747045751594</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H39" t="n">
         <v>115.9747045751594</v>
@@ -7256,19 +7256,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K39" t="n">
-        <v>112.3287381944631</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L39" t="n">
-        <v>395.2338702498412</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M39" t="n">
-        <v>770.1254798029028</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N39" t="n">
-        <v>1173.359244302914</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O39" t="n">
-        <v>1486.492278349808</v>
+        <v>1569.578013588512</v>
       </c>
       <c r="P39" t="n">
         <v>1715.732642722258</v>
@@ -7277,28 +7277,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S39" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T39" t="n">
-        <v>1715.732642722258</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U39" t="n">
-        <v>1715.732642722258</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="V39" t="n">
-        <v>1715.732642722258</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="W39" t="n">
-        <v>1446.334073452549</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="X39" t="n">
-        <v>1226.826079069245</v>
+        <v>1015.370310391748</v>
       </c>
       <c r="Y39" t="n">
-        <v>1001.185386004573</v>
+        <v>1015.370310391748</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514571</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722258</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="T40" t="n">
-        <v>1706.726320836543</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="U40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>34.31465285444516</v>
+        <v>556.4931262795765</v>
       </c>
       <c r="C41" t="n">
-        <v>34.31465285444516</v>
+        <v>556.4931262795765</v>
       </c>
       <c r="D41" t="n">
-        <v>34.31465285444516</v>
+        <v>556.4931262795765</v>
       </c>
       <c r="E41" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="F41" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G41" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H41" t="n">
         <v>34.31465285444516</v>
@@ -7411,7 +7411,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K41" t="n">
         <v>253.8975067193749</v>
@@ -7447,16 +7447,16 @@
         <v>942.6401640759906</v>
       </c>
       <c r="V41" t="n">
-        <v>618.5191705313925</v>
+        <v>942.6401640759906</v>
       </c>
       <c r="W41" t="n">
-        <v>420.4616906508592</v>
+        <v>942.6401640759906</v>
       </c>
       <c r="X41" t="n">
-        <v>420.4616906508592</v>
+        <v>942.6401640759906</v>
       </c>
       <c r="Y41" t="n">
-        <v>34.31465285444516</v>
+        <v>556.4931262795765</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>867.9669970985512</v>
+        <v>492.687296730023</v>
       </c>
       <c r="C42" t="n">
-        <v>678.5547228315149</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="D42" t="n">
-        <v>517.7746065925467</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="E42" t="n">
-        <v>344.2114027139611</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="F42" t="n">
-        <v>183.7836864312052</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G42" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H42" t="n">
         <v>34.31465285444516</v>
@@ -7490,52 +7490,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K42" t="n">
-        <v>112.3287381944631</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L42" t="n">
-        <v>395.2338702498412</v>
+        <v>304.6946924676434</v>
       </c>
       <c r="M42" t="n">
-        <v>770.1254798029028</v>
+        <v>679.5863020207049</v>
       </c>
       <c r="N42" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O42" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P42" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q42" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R42" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S42" t="n">
-        <v>1627.958867440572</v>
+        <v>1689.887397216527</v>
       </c>
       <c r="T42" t="n">
-        <v>1627.958867440572</v>
+        <v>1689.887397216527</v>
       </c>
       <c r="U42" t="n">
-        <v>1388.385741768119</v>
+        <v>1450.314271544074</v>
       </c>
       <c r="V42" t="n">
-        <v>1388.385741768119</v>
+        <v>1207.234553447708</v>
       </c>
       <c r="W42" t="n">
-        <v>1388.385741768119</v>
+        <v>937.8359841779991</v>
       </c>
       <c r="X42" t="n">
-        <v>1272.143543090159</v>
+        <v>718.3279897946954</v>
       </c>
       <c r="Y42" t="n">
-        <v>1046.502850025486</v>
+        <v>492.687296730023</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>204.0671920298242</v>
+        <v>317.752050259164</v>
       </c>
       <c r="C43" t="n">
-        <v>204.0671920298242</v>
+        <v>317.752050259164</v>
       </c>
       <c r="D43" t="n">
-        <v>204.0671920298242</v>
+        <v>317.752050259164</v>
       </c>
       <c r="E43" t="n">
-        <v>204.0671920298242</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F43" t="n">
-        <v>204.0671920298242</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
         <v>34.31465285444516</v>
@@ -7602,19 +7602,19 @@
         <v>334.857675380022</v>
       </c>
       <c r="U43" t="n">
-        <v>204.0671920298242</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V43" t="n">
-        <v>204.0671920298242</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W43" t="n">
-        <v>204.0671920298242</v>
+        <v>317.752050259164</v>
       </c>
       <c r="X43" t="n">
-        <v>204.0671920298242</v>
+        <v>317.752050259164</v>
       </c>
       <c r="Y43" t="n">
-        <v>204.0671920298242</v>
+        <v>317.752050259164</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1386.218517454924</v>
+        <v>782.7706218264057</v>
       </c>
       <c r="C44" t="n">
-        <v>1386.218517454924</v>
+        <v>782.7706218264057</v>
       </c>
       <c r="D44" t="n">
-        <v>1386.218517454924</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="E44" t="n">
-        <v>1386.218517454924</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F44" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G44" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H44" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I44" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602976</v>
       </c>
       <c r="K44" t="n">
         <v>253.8975067193749</v>
@@ -7672,28 +7672,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1610.227176505315</v>
+        <v>1700.762157010136</v>
       </c>
       <c r="S44" t="n">
-        <v>1610.227176505315</v>
+        <v>1700.762157010136</v>
       </c>
       <c r="T44" t="n">
-        <v>1391.879729590323</v>
+        <v>1700.762157010136</v>
       </c>
       <c r="U44" t="n">
-        <v>1391.879729590323</v>
+        <v>1448.20117479097</v>
       </c>
       <c r="V44" t="n">
-        <v>1391.879729590323</v>
+        <v>1124.080181246372</v>
       </c>
       <c r="W44" t="n">
-        <v>1386.218517454924</v>
+        <v>782.7706218264057</v>
       </c>
       <c r="X44" t="n">
-        <v>1386.218517454924</v>
+        <v>782.7706218264057</v>
       </c>
       <c r="Y44" t="n">
-        <v>1386.218517454924</v>
+        <v>782.7706218264057</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1069.118384851047</v>
+        <v>718.4979635217912</v>
       </c>
       <c r="C45" t="n">
-        <v>879.7061105840106</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="D45" t="n">
-        <v>718.9259943450423</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E45" t="n">
-        <v>545.3627904664568</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F45" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G45" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I45" t="n">
         <v>34.31465285444516</v>
@@ -7739,13 +7739,13 @@
         <v>853.2112150416076</v>
       </c>
       <c r="N45" t="n">
-        <v>1082.820066520716</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O45" t="n">
-        <v>1395.95310056761</v>
+        <v>1569.578013588512</v>
       </c>
       <c r="P45" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
@@ -7754,25 +7754,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S45" t="n">
-        <v>1715.732642722258</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T45" t="n">
-        <v>1715.732642722258</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="U45" t="n">
-        <v>1715.732642722258</v>
+        <v>1392.073078783108</v>
       </c>
       <c r="V45" t="n">
-        <v>1472.652924625892</v>
+        <v>1392.073078783108</v>
       </c>
       <c r="W45" t="n">
-        <v>1203.254355356183</v>
+        <v>1122.674509513399</v>
       </c>
       <c r="X45" t="n">
-        <v>1069.118384851047</v>
+        <v>1122.674509513399</v>
       </c>
       <c r="Y45" t="n">
-        <v>1069.118384851047</v>
+        <v>897.0338164487264</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C46" t="n">
-        <v>166.7191087416661</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D46" t="n">
-        <v>166.7191087416661</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E46" t="n">
         <v>34.31465285444516</v>
@@ -7836,22 +7836,22 @@
         <v>334.857675380022</v>
       </c>
       <c r="T46" t="n">
-        <v>334.857675380022</v>
+        <v>258.475718923377</v>
       </c>
       <c r="U46" t="n">
-        <v>334.857675380022</v>
+        <v>258.475718923377</v>
       </c>
       <c r="V46" t="n">
-        <v>334.857675380022</v>
+        <v>258.475718923377</v>
       </c>
       <c r="W46" t="n">
-        <v>334.857675380022</v>
+        <v>258.475718923377</v>
       </c>
       <c r="X46" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y46" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>67.15086399372798</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -8783,13 +8783,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O12" t="n">
-        <v>59.54645836938593</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131763</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9008,13 +9008,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>67.150863993728</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>301.77688131</v>
+        <v>106.1005567880645</v>
       </c>
       <c r="N15" t="n">
         <v>310.6138585746227</v>
@@ -9026,7 +9026,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.67636752131757</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9242,10 +9242,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491784</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9260,10 +9260,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>30.98517405756592</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>103.180849424554</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9482,13 +9482,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>67.15086399372798</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>197.5542717195775</v>
+        <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
         <v>310.6138585746227</v>
@@ -9500,7 +9500,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.67636752131757</v>
+        <v>44.67636752131763</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,7 +9716,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
         <v>171.373473584151</v>
@@ -9728,7 +9728,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>135.2351585535088</v>
+        <v>114.937534052688</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -9953,7 +9953,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
         <v>171.373473584151</v>
@@ -9962,13 +9962,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M27" t="n">
-        <v>301.77688131</v>
+        <v>106.1005567880645</v>
       </c>
       <c r="N27" t="n">
         <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
-        <v>79.8440828702075</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
         <v>206.3638740786793</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>87.44848849455019</v>
+        <v>67.15086399372845</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10430,7 +10430,7 @@
         <v>61.4093663997632</v>
       </c>
       <c r="K33" t="n">
-        <v>8.64638209049167</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10445,10 +10445,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P33" t="n">
-        <v>193.7122655512253</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10670,7 +10670,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
-        <v>64.92584373552869</v>
+        <v>156.3795586670407</v>
       </c>
       <c r="M36" t="n">
         <v>301.77688131</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10904,7 +10904,7 @@
         <v>61.4093663997632</v>
       </c>
       <c r="K39" t="n">
-        <v>87.44848849455019</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10919,7 +10919,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P39" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890791</v>
       </c>
       <c r="Q39" t="n">
         <v>44.67636752131757</v>
@@ -11062,7 +11062,7 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>210.0462273461147</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
         <v>270.6444670286918</v>
@@ -11138,13 +11138,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K42" t="n">
-        <v>67.15086399372845</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L42" t="n">
-        <v>240.3045437566416</v>
+        <v>227.6529352291871</v>
       </c>
       <c r="M42" t="n">
         <v>301.77688131</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.67636752131757</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315037</v>
       </c>
       <c r="K44" t="n">
-        <v>210.0462273461147</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
         <v>270.6444670286918</v>
@@ -11387,16 +11387,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
-        <v>135.2351585535088</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O45" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P45" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890784</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23263,19 +23263,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>158.9130748612164</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>258.556901695923</v>
       </c>
       <c r="I11" t="n">
         <v>185.5090622027478</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
         <v>216.1639724458418</v>
@@ -23323,7 +23323,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.17319298192305</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23351,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>206.9390883102009</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23433,13 +23433,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H13" t="n">
-        <v>155.7061618107481</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.58429473553589</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706155</v>
       </c>
       <c r="R13" t="n">
         <v>174.3941919203111</v>
@@ -23475,10 +23475,10 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>237.8821299734645</v>
       </c>
       <c r="W13" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>221.9194554082425</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>350.2054973811788</v>
@@ -23503,7 +23503,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>403.1992496400135</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.4504115547736</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
-        <v>35.94332020513124</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>201.5262527646464</v>
       </c>
       <c r="W14" t="n">
         <v>337.8964638257669</v>
@@ -23563,7 +23563,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>126.2058430820009</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>199.2126429742885</v>
       </c>
     </row>
     <row r="16">
@@ -23676,7 +23676,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>24.58419038258737</v>
+        <v>74.58429473553589</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.14329602706155</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
         <v>224.1841888012565</v>
@@ -23715,10 +23715,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W16" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>221.9194554082425</v>
+        <v>214.6925701972571</v>
       </c>
       <c r="Y16" t="n">
         <v>217.1412728141684</v>
@@ -23740,7 +23740,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>45.25992804697614</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>104.4504115547735</v>
+        <v>104.4504115547736</v>
       </c>
       <c r="S17" t="n">
         <v>194.7117974622146</v>
@@ -23788,7 +23788,7 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0353723969745</v>
+        <v>159.7938508146492</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23800,7 +23800,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.6355861545962682</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886887</v>
       </c>
       <c r="S18" t="n">
         <v>177.283526739121</v>
@@ -23870,13 +23870,13 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>244.0041632556747</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553591</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706157</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>101.0407884212465</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T19" t="n">
         <v>221.0023972007068</v>
@@ -23949,10 +23949,10 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V19" t="n">
-        <v>245.1090151844499</v>
+        <v>237.8821299734645</v>
       </c>
       <c r="W19" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>321.6290771449694</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>417.3985592667085</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547736</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>180.3375761743725</v>
       </c>
     </row>
     <row r="21">
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350707</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.89603752886887</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>56.46423435920148</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,13 +24107,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>103.936808905941</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -24138,10 +24138,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F22" t="n">
-        <v>9.44430370175067</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H22" t="n">
         <v>160.0829940331247</v>
@@ -24150,7 +24150,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553589</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706155</v>
       </c>
       <c r="R22" t="n">
         <v>174.3941919203111</v>
@@ -24180,13 +24180,13 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T22" t="n">
-        <v>221.0023972007068</v>
+        <v>168.573820084836</v>
       </c>
       <c r="U22" t="n">
         <v>288.6213336334641</v>
       </c>
       <c r="V22" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>290.3107070893353</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
         <v>185.5090622027478</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4504115547735</v>
+        <v>16.81721828864421</v>
       </c>
       <c r="S23" t="n">
         <v>194.7117974622146</v>
@@ -24262,7 +24262,7 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
-        <v>44.35914824341717</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24274,7 +24274,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24287,25 +24287,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>34.5982377074633</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350707</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.89603752886886</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>97.29219807573577</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24384,10 +24384,10 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I25" t="n">
-        <v>96.87406367087286</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706154</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S25" t="n">
         <v>224.1841888012565</v>
@@ -24420,13 +24420,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6213336334641</v>
+        <v>281.3944484224785</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>227.0874046669591</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>49.5831500955166</v>
       </c>
       <c r="E26" t="n">
         <v>371.4789120616362</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.1639724458418</v>
@@ -24508,7 +24508,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24533,10 +24533,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H27" t="n">
         <v>118.2964226714636</v>
@@ -24572,22 +24572,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
-        <v>179.1449677454931</v>
+        <v>169.5965513067162</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>128.2480813810612</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>168.0550137836253</v>
@@ -24654,10 +24654,10 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T28" t="n">
-        <v>212.0861385338497</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>92.58842179061334</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>86.72149364688377</v>
       </c>
       <c r="U29" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
         <v>337.8964638257669</v>
@@ -24748,7 +24748,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8662302997449</v>
+        <v>13.48228788061434</v>
       </c>
       <c r="U30" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
-        <v>184.4055168836333</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>115.6264366677541</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H31" t="n">
         <v>160.0829940331247</v>
@@ -24894,16 +24894,16 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6213336334641</v>
+        <v>213.0031967413856</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
         <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>217.1412728141684</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>168.8076000366383</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>371.4789120616362</v>
@@ -24931,13 +24931,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.3985592667085</v>
+        <v>142.7318710120222</v>
       </c>
       <c r="H32" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -24998,25 +24998,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>145.8852911970909</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>155.2475379134043</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -25083,7 +25083,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>18.53274083221497</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
@@ -25122,7 +25122,7 @@
         <v>73.14329602706152</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
         <v>224.1841888012565</v>
@@ -25131,13 +25131,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>281.3944484224784</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -25162,7 +25162,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>331.7657284181829</v>
       </c>
       <c r="I35" t="n">
         <v>185.5090622027478</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>105.8717771987474</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25235,19 +25235,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>80.480457128764</v>
       </c>
       <c r="H36" t="n">
         <v>118.2964226714636</v>
@@ -25292,13 +25292,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>227.3881877463445</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -25320,7 +25320,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>21.75546957687199</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
@@ -25374,10 +25374,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
-        <v>214.6925701972567</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
         <v>217.1412728141684</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>11.85448471135533</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
         <v>371.4789120616362</v>
@@ -25405,13 +25405,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I38" t="n">
-        <v>185.5090622027478</v>
+        <v>135.0280021494297</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>194.7117974622146</v>
@@ -25447,7 +25447,7 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25456,7 +25456,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25484,10 +25484,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>125.7077405842113</v>
+        <v>42.44293658800578</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.1773944157285</v>
@@ -25532,13 +25532,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -25599,13 +25599,13 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S40" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>212.0861385338497</v>
+        <v>147.6489937016422</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25636,7 +25636,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>186.8001782157609</v>
       </c>
       <c r="F41" t="n">
         <v>403.1992496400135</v>
@@ -25645,7 +25645,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>185.5090622027478</v>
@@ -25687,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>141.8195587440389</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
         <v>359.7827142947061</v>
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>80.84345120350706</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S42" t="n">
-        <v>177.283526739121</v>
+        <v>151.6967336884472</v>
       </c>
       <c r="T42" t="n">
         <v>211.8662302997449</v>
@@ -25766,13 +25766,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>102.23313774829</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H43" t="n">
         <v>160.0829940331247</v>
@@ -25842,13 +25842,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>159.1387551167683</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>273.3761382196859</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -25870,7 +25870,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>371.4789120616362</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.62963069977326</v>
       </c>
       <c r="S44" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>332.2918638117224</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S45" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1773944157285</v>
+        <v>94.03795285509091</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>84.51830363938561</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26025,13 +26025,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>10.59572988387623</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -26076,7 +26076,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T46" t="n">
-        <v>221.0023972007068</v>
+        <v>145.3842603086282</v>
       </c>
       <c r="U46" t="n">
         <v>288.6213336334641</v>
@@ -26088,7 +26088,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X46" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>595933.0476857121</v>
+        <v>595933.0476857119</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>595933.047685712</v>
+        <v>595933.0476857119</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>595933.0476857118</v>
+        <v>595933.0476857115</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>595933.0476857119</v>
+        <v>595933.0476857118</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>595933.047685712</v>
+        <v>595933.0476857119</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>595933.0476857119</v>
+        <v>595933.047685712</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>595933.047685712</v>
+        <v>595933.0476857119</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>573255.7968646991</v>
       </c>
       <c r="D2" t="n">
-        <v>573255.7968646992</v>
+        <v>573255.7968646991</v>
       </c>
       <c r="E2" t="n">
-        <v>325600.7626641426</v>
+        <v>325600.7626641423</v>
       </c>
       <c r="F2" t="n">
-        <v>325600.7626641426</v>
+        <v>325600.7626641424</v>
       </c>
       <c r="G2" t="n">
+        <v>325600.7626641424</v>
+      </c>
+      <c r="H2" t="n">
+        <v>325600.7626641423</v>
+      </c>
+      <c r="I2" t="n">
+        <v>325600.7626641422</v>
+      </c>
+      <c r="J2" t="n">
+        <v>325600.7626641424</v>
+      </c>
+      <c r="K2" t="n">
         <v>325600.7626641425</v>
-      </c>
-      <c r="H2" t="n">
-        <v>325600.7626641426</v>
-      </c>
-      <c r="I2" t="n">
-        <v>325600.7626641426</v>
-      </c>
-      <c r="J2" t="n">
-        <v>325600.7626641426</v>
-      </c>
-      <c r="K2" t="n">
-        <v>325600.7626641427</v>
       </c>
       <c r="L2" t="n">
         <v>325600.7626641426</v>
       </c>
       <c r="M2" t="n">
-        <v>325600.7626641428</v>
+        <v>325600.7626641425</v>
       </c>
       <c r="N2" t="n">
-        <v>325600.7626641425</v>
+        <v>325600.7626641426</v>
       </c>
       <c r="O2" t="n">
-        <v>325600.7626641426</v>
+        <v>325600.7626641427</v>
       </c>
       <c r="P2" t="n">
-        <v>325600.7626641427</v>
+        <v>325600.7626641424</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174924</v>
+        <v>497053.1518174922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424945.6323940752</v>
+        <v>424945.6323940753</v>
       </c>
       <c r="C4" t="n">
-        <v>424945.6323940752</v>
+        <v>424945.6323940753</v>
       </c>
       <c r="D4" t="n">
-        <v>424945.6323940752</v>
+        <v>424945.6323940753</v>
       </c>
       <c r="E4" t="n">
-        <v>45238.10881293861</v>
+        <v>45238.1088129386</v>
       </c>
       <c r="F4" t="n">
-        <v>45238.10881293859</v>
+        <v>45238.1088129386</v>
       </c>
       <c r="G4" t="n">
         <v>45238.1088129386</v>
@@ -26444,7 +26444,7 @@
         <v>45238.1088129386</v>
       </c>
       <c r="K4" t="n">
-        <v>45238.10881293859</v>
+        <v>45238.1088129386</v>
       </c>
       <c r="L4" t="n">
         <v>45238.1088129386</v>
@@ -26453,7 +26453,7 @@
         <v>45238.1088129386</v>
       </c>
       <c r="N4" t="n">
-        <v>45238.10881293859</v>
+        <v>45238.1088129386</v>
       </c>
       <c r="O4" t="n">
         <v>45238.1088129386</v>
@@ -26478,22 +26478,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>36091.33751189042</v>
+      </c>
+      <c r="F5" t="n">
+        <v>36091.33751189043</v>
+      </c>
+      <c r="G5" t="n">
+        <v>36091.33751189042</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36091.33751189042</v>
+      </c>
+      <c r="I5" t="n">
         <v>36091.33751189045</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
         <v>36091.33751189044</v>
-      </c>
-      <c r="G5" t="n">
-        <v>36091.33751189045</v>
-      </c>
-      <c r="H5" t="n">
-        <v>36091.33751189045</v>
-      </c>
-      <c r="I5" t="n">
-        <v>36091.33751189044</v>
-      </c>
-      <c r="J5" t="n">
-        <v>36091.33751189045</v>
       </c>
       <c r="K5" t="n">
         <v>36091.33751189045</v>
@@ -26502,10 +26502,10 @@
         <v>36091.33751189045</v>
       </c>
       <c r="M5" t="n">
+        <v>36091.33751189045</v>
+      </c>
+      <c r="N5" t="n">
         <v>36091.33751189046</v>
-      </c>
-      <c r="N5" t="n">
-        <v>36091.33751189045</v>
       </c>
       <c r="O5" t="n">
         <v>36091.33751189045</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114682.5644706238</v>
+        <v>114637.9006285718</v>
       </c>
       <c r="C6" t="n">
-        <v>114682.5644706239</v>
+        <v>114637.9006285719</v>
       </c>
       <c r="D6" t="n">
-        <v>114682.564470624</v>
+        <v>114637.9006285719</v>
       </c>
       <c r="E6" t="n">
-        <v>-252781.8354781789</v>
+        <v>-262351.6929433292</v>
       </c>
       <c r="F6" t="n">
-        <v>244271.3163393136</v>
+        <v>234701.4588741632</v>
       </c>
       <c r="G6" t="n">
-        <v>244271.3163393135</v>
+        <v>234701.4588741631</v>
       </c>
       <c r="H6" t="n">
-        <v>244271.3163393136</v>
+        <v>234701.458874163</v>
       </c>
       <c r="I6" t="n">
-        <v>244271.3163393135</v>
+        <v>234701.458874163</v>
       </c>
       <c r="J6" t="n">
-        <v>244271.3163393135</v>
+        <v>234701.4588741631</v>
       </c>
       <c r="K6" t="n">
-        <v>244271.3163393137</v>
+        <v>234701.4588741632</v>
       </c>
       <c r="L6" t="n">
-        <v>244271.3163393135</v>
+        <v>234701.4588741634</v>
       </c>
       <c r="M6" t="n">
-        <v>137379.4569650744</v>
+        <v>127809.5994999239</v>
       </c>
       <c r="N6" t="n">
-        <v>244271.3163393134</v>
+        <v>234701.4588741633</v>
       </c>
       <c r="O6" t="n">
-        <v>244271.3163393136</v>
+        <v>234701.4588741634</v>
       </c>
       <c r="P6" t="n">
-        <v>244271.3163393136</v>
+        <v>234701.4588741631</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409234</v>
       </c>
       <c r="F3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409234</v>
       </c>
       <c r="G3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409233</v>
       </c>
       <c r="H3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409234</v>
       </c>
       <c r="I3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="J3" t="n">
         <v>459.2752909409236</v>
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>428.9331606805641</v>
+      </c>
+      <c r="F4" t="n">
+        <v>428.9331606805642</v>
+      </c>
+      <c r="G4" t="n">
+        <v>428.9331606805641</v>
+      </c>
+      <c r="H4" t="n">
+        <v>428.9331606805641</v>
+      </c>
+      <c r="I4" t="n">
         <v>428.9331606805645</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>428.9331606805644</v>
-      </c>
-      <c r="G4" t="n">
-        <v>428.9331606805645</v>
-      </c>
-      <c r="H4" t="n">
-        <v>428.9331606805645</v>
-      </c>
-      <c r="I4" t="n">
-        <v>428.9331606805644</v>
-      </c>
-      <c r="J4" t="n">
-        <v>428.9331606805645</v>
       </c>
       <c r="K4" t="n">
         <v>428.9331606805645</v>
@@ -26822,10 +26822,10 @@
         <v>428.9331606805645</v>
       </c>
       <c r="M4" t="n">
+        <v>428.9331606805645</v>
+      </c>
+      <c r="N4" t="n">
         <v>428.9331606805646</v>
-      </c>
-      <c r="N4" t="n">
-        <v>428.9331606805644</v>
       </c>
       <c r="O4" t="n">
         <v>428.9331606805644</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409234</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805642</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805643</v>
+        <v>428.9331606805642</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805642</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.846332827903209</v>
+        <v>1.846332827903208</v>
       </c>
       <c r="H11" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376373</v>
       </c>
       <c r="I11" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773849</v>
       </c>
       <c r="J11" t="n">
-        <v>156.7051908522501</v>
+        <v>156.70519085225</v>
       </c>
       <c r="K11" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573929</v>
       </c>
       <c r="L11" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393357</v>
       </c>
       <c r="M11" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675594</v>
       </c>
       <c r="N11" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148394</v>
       </c>
       <c r="O11" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573769</v>
       </c>
       <c r="P11" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685164</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692327</v>
       </c>
       <c r="R11" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S11" t="n">
-        <v>42.07330931584442</v>
+        <v>42.0733093158444</v>
       </c>
       <c r="T11" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146298</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1477066262322567</v>
+        <v>0.1477066262322566</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993446</v>
       </c>
       <c r="H12" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433146</v>
       </c>
       <c r="I12" t="n">
-        <v>34.01236824420991</v>
+        <v>34.0123682442099</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357011</v>
       </c>
       <c r="K12" t="n">
-        <v>159.5201734582263</v>
+        <v>159.5201734582262</v>
       </c>
       <c r="L12" t="n">
-        <v>214.4945592267021</v>
+        <v>214.494559226702</v>
       </c>
       <c r="M12" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628032</v>
       </c>
       <c r="N12" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953379</v>
       </c>
       <c r="O12" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176629</v>
       </c>
       <c r="P12" t="n">
-        <v>188.640826575339</v>
+        <v>188.6408265753389</v>
       </c>
       <c r="Q12" t="n">
-        <v>126.1013968636287</v>
+        <v>126.1013968636286</v>
       </c>
       <c r="R12" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943126</v>
       </c>
       <c r="S12" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881895</v>
       </c>
       <c r="T12" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742532</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390427</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196977</v>
       </c>
       <c r="H13" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315137</v>
       </c>
       <c r="I13" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463237</v>
       </c>
       <c r="J13" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340263</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368851</v>
       </c>
       <c r="L13" t="n">
-        <v>123.1309525909486</v>
+        <v>123.1309525909485</v>
       </c>
       <c r="M13" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N13" t="n">
         <v>126.7373929903044</v>
       </c>
       <c r="O13" t="n">
-        <v>117.0624954680243</v>
+        <v>117.0624954680242</v>
       </c>
       <c r="P13" t="n">
-        <v>100.1671880439024</v>
+        <v>100.1671880439023</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207943</v>
       </c>
       <c r="R13" t="n">
-        <v>37.23894408186569</v>
+        <v>37.23894408186568</v>
       </c>
       <c r="S13" t="n">
-        <v>14.43329070055328</v>
+        <v>14.43329070055327</v>
       </c>
       <c r="T13" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184162</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107448</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.846332827903209</v>
+        <v>1.846332827903208</v>
       </c>
       <c r="H14" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376373</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773849</v>
       </c>
       <c r="J14" t="n">
-        <v>156.7051908522501</v>
+        <v>156.70519085225</v>
       </c>
       <c r="K14" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573929</v>
       </c>
       <c r="L14" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393357</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675594</v>
       </c>
       <c r="N14" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148394</v>
       </c>
       <c r="O14" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573769</v>
       </c>
       <c r="P14" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685164</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692327</v>
       </c>
       <c r="R14" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S14" t="n">
-        <v>42.07330931584442</v>
+        <v>42.0733093158444</v>
       </c>
       <c r="T14" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146298</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1477066262322567</v>
+        <v>0.1477066262322566</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993446</v>
       </c>
       <c r="H15" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433146</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01236824420991</v>
+        <v>34.0123682442099</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357011</v>
       </c>
       <c r="K15" t="n">
-        <v>159.5201734582263</v>
+        <v>159.5201734582262</v>
       </c>
       <c r="L15" t="n">
-        <v>214.4945592267021</v>
+        <v>214.494559226702</v>
       </c>
       <c r="M15" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628032</v>
       </c>
       <c r="N15" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953379</v>
       </c>
       <c r="O15" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176629</v>
       </c>
       <c r="P15" t="n">
-        <v>188.640826575339</v>
+        <v>188.6408265753389</v>
       </c>
       <c r="Q15" t="n">
-        <v>126.1013968636287</v>
+        <v>126.1013968636286</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943126</v>
       </c>
       <c r="S15" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881895</v>
       </c>
       <c r="T15" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742532</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390427</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196977</v>
       </c>
       <c r="H16" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315137</v>
       </c>
       <c r="I16" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463237</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340263</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368851</v>
       </c>
       <c r="L16" t="n">
-        <v>123.1309525909486</v>
+        <v>123.1309525909485</v>
       </c>
       <c r="M16" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N16" t="n">
         <v>126.7373929903044</v>
       </c>
       <c r="O16" t="n">
-        <v>117.0624954680243</v>
+        <v>117.0624954680242</v>
       </c>
       <c r="P16" t="n">
-        <v>100.1671880439024</v>
+        <v>100.1671880439023</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207943</v>
       </c>
       <c r="R16" t="n">
-        <v>37.23894408186569</v>
+        <v>37.23894408186568</v>
       </c>
       <c r="S16" t="n">
-        <v>14.43329070055328</v>
+        <v>14.43329070055327</v>
       </c>
       <c r="T16" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184162</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107448</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.846332827903209</v>
+        <v>1.846332827903208</v>
       </c>
       <c r="H17" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376373</v>
       </c>
       <c r="I17" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773849</v>
       </c>
       <c r="J17" t="n">
-        <v>156.7051908522501</v>
+        <v>156.70519085225</v>
       </c>
       <c r="K17" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573929</v>
       </c>
       <c r="L17" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393357</v>
       </c>
       <c r="M17" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675594</v>
       </c>
       <c r="N17" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148394</v>
       </c>
       <c r="O17" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573769</v>
       </c>
       <c r="P17" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685163</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692327</v>
       </c>
       <c r="R17" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S17" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584439</v>
       </c>
       <c r="T17" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146297</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1477066262322567</v>
+        <v>0.1477066262322566</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993445</v>
       </c>
       <c r="H18" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433145</v>
       </c>
       <c r="I18" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420989</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357015</v>
+        <v>93.3325381335701</v>
       </c>
       <c r="K18" t="n">
-        <v>159.5201734582263</v>
+        <v>159.5201734582262</v>
       </c>
       <c r="L18" t="n">
-        <v>214.4945592267021</v>
+        <v>214.494559226702</v>
       </c>
       <c r="M18" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628032</v>
       </c>
       <c r="N18" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953378</v>
       </c>
       <c r="O18" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176629</v>
       </c>
       <c r="P18" t="n">
-        <v>188.640826575339</v>
+        <v>188.6408265753389</v>
       </c>
       <c r="Q18" t="n">
-        <v>126.1013968636287</v>
+        <v>126.1013968636286</v>
       </c>
       <c r="R18" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943126</v>
       </c>
       <c r="S18" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881895</v>
       </c>
       <c r="T18" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742532</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390427</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196976</v>
       </c>
       <c r="H19" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315136</v>
       </c>
       <c r="I19" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463237</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340262</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368849</v>
       </c>
       <c r="L19" t="n">
-        <v>123.1309525909486</v>
+        <v>123.1309525909485</v>
       </c>
       <c r="M19" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N19" t="n">
         <v>126.7373929903044</v>
       </c>
       <c r="O19" t="n">
-        <v>117.0624954680243</v>
+        <v>117.0624954680242</v>
       </c>
       <c r="P19" t="n">
-        <v>100.1671880439024</v>
+        <v>100.1671880439023</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207941</v>
       </c>
       <c r="R19" t="n">
-        <v>37.23894408186569</v>
+        <v>37.23894408186567</v>
       </c>
       <c r="S19" t="n">
-        <v>14.43329070055328</v>
+        <v>14.43329070055327</v>
       </c>
       <c r="T19" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184162</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107447</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.846332827903209</v>
+        <v>1.846332827903208</v>
       </c>
       <c r="H20" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376373</v>
       </c>
       <c r="I20" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773849</v>
       </c>
       <c r="J20" t="n">
-        <v>156.7051908522501</v>
+        <v>156.70519085225</v>
       </c>
       <c r="K20" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573929</v>
       </c>
       <c r="L20" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393357</v>
       </c>
       <c r="M20" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675594</v>
       </c>
       <c r="N20" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148394</v>
       </c>
       <c r="O20" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573769</v>
       </c>
       <c r="P20" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685164</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692327</v>
       </c>
       <c r="R20" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S20" t="n">
-        <v>42.07330931584442</v>
+        <v>42.0733093158444</v>
       </c>
       <c r="T20" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146298</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1477066262322567</v>
+        <v>0.1477066262322566</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993446</v>
       </c>
       <c r="H21" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433146</v>
       </c>
       <c r="I21" t="n">
-        <v>34.01236824420991</v>
+        <v>34.0123682442099</v>
       </c>
       <c r="J21" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357011</v>
       </c>
       <c r="K21" t="n">
-        <v>159.5201734582263</v>
+        <v>159.5201734582262</v>
       </c>
       <c r="L21" t="n">
-        <v>214.4945592267021</v>
+        <v>214.494559226702</v>
       </c>
       <c r="M21" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628032</v>
       </c>
       <c r="N21" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953379</v>
       </c>
       <c r="O21" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176629</v>
       </c>
       <c r="P21" t="n">
-        <v>188.640826575339</v>
+        <v>188.6408265753389</v>
       </c>
       <c r="Q21" t="n">
-        <v>126.1013968636287</v>
+        <v>126.1013968636286</v>
       </c>
       <c r="R21" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943126</v>
       </c>
       <c r="S21" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881895</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742532</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390427</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196977</v>
       </c>
       <c r="H22" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315137</v>
       </c>
       <c r="I22" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463237</v>
       </c>
       <c r="J22" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340263</v>
       </c>
       <c r="K22" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368851</v>
       </c>
       <c r="L22" t="n">
-        <v>123.1309525909486</v>
+        <v>123.1309525909485</v>
       </c>
       <c r="M22" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N22" t="n">
         <v>126.7373929903044</v>
       </c>
       <c r="O22" t="n">
-        <v>117.0624954680243</v>
+        <v>117.0624954680242</v>
       </c>
       <c r="P22" t="n">
-        <v>100.1671880439024</v>
+        <v>100.1671880439023</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207943</v>
       </c>
       <c r="R22" t="n">
-        <v>37.23894408186569</v>
+        <v>37.23894408186568</v>
       </c>
       <c r="S22" t="n">
-        <v>14.43329070055328</v>
+        <v>14.43329070055327</v>
       </c>
       <c r="T22" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184162</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107448</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,22 +32706,22 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I23" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J23" t="n">
         <v>156.7051908522501</v>
       </c>
       <c r="K23" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573929</v>
       </c>
       <c r="L23" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M23" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N23" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148395</v>
       </c>
       <c r="O23" t="n">
         <v>311.086310257377</v>
@@ -32730,16 +32730,16 @@
         <v>265.5049685685165</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692327</v>
       </c>
       <c r="R23" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S23" t="n">
-        <v>42.07330931584442</v>
+        <v>42.0733093158444</v>
       </c>
       <c r="T23" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U23" t="n">
         <v>0.1477066262322567</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993449</v>
       </c>
       <c r="H24" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433148</v>
       </c>
       <c r="I24" t="n">
-        <v>34.01236824420991</v>
+        <v>34.0123682442099</v>
       </c>
       <c r="J24" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K24" t="n">
-        <v>159.5201734582263</v>
+        <v>159.5201734582262</v>
       </c>
       <c r="L24" t="n">
         <v>214.4945592267021</v>
@@ -32800,28 +32800,28 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N24" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953379</v>
       </c>
       <c r="O24" t="n">
         <v>235.040629317663</v>
       </c>
       <c r="P24" t="n">
-        <v>188.640826575339</v>
+        <v>188.6408265753389</v>
       </c>
       <c r="Q24" t="n">
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S24" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T24" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742533</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196979</v>
       </c>
       <c r="H25" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315138</v>
       </c>
       <c r="I25" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J25" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340264</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368852</v>
       </c>
       <c r="L25" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M25" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N25" t="n">
         <v>126.7373929903044</v>
@@ -32885,22 +32885,22 @@
         <v>117.0624954680243</v>
       </c>
       <c r="P25" t="n">
-        <v>100.1671880439024</v>
+        <v>100.1671880439023</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207944</v>
       </c>
       <c r="R25" t="n">
-        <v>37.23894408186569</v>
+        <v>37.23894408186568</v>
       </c>
       <c r="S25" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T25" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184163</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119657</v>
       </c>
       <c r="K11" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286314</v>
       </c>
       <c r="L11" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046432</v>
       </c>
       <c r="M11" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336422</v>
       </c>
       <c r="N11" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459643</v>
       </c>
       <c r="O11" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811781</v>
       </c>
       <c r="P11" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422083</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002255</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082168</v>
       </c>
       <c r="K12" t="n">
-        <v>162.7270914936593</v>
+        <v>58.50448190323623</v>
       </c>
       <c r="L12" t="n">
         <v>285.7627596518971</v>
       </c>
       <c r="M12" t="n">
-        <v>378.6783934879409</v>
+        <v>378.6783934879408</v>
       </c>
       <c r="N12" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282939</v>
       </c>
       <c r="O12" t="n">
-        <v>120.6196694648268</v>
+        <v>316.2959939867615</v>
       </c>
       <c r="P12" t="n">
-        <v>231.5559236085354</v>
+        <v>231.5559236085353</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970204</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676509</v>
       </c>
       <c r="M13" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692031</v>
       </c>
       <c r="N13" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793113</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186795</v>
+        <v>53.7965183618679</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144086</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119657</v>
       </c>
       <c r="K14" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286314</v>
       </c>
       <c r="L14" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046432</v>
       </c>
       <c r="M14" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336422</v>
       </c>
       <c r="N14" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459643</v>
       </c>
       <c r="O14" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811781</v>
       </c>
       <c r="P14" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422083</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002255</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082168</v>
       </c>
       <c r="K15" t="n">
-        <v>58.50448190323633</v>
+        <v>162.7270914936592</v>
       </c>
       <c r="L15" t="n">
         <v>285.7627596518971</v>
       </c>
       <c r="M15" t="n">
-        <v>378.6783934879409</v>
+        <v>183.0020689660053</v>
       </c>
       <c r="N15" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282939</v>
       </c>
       <c r="O15" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867615</v>
       </c>
       <c r="P15" t="n">
-        <v>231.5559236085354</v>
+        <v>231.5559236085353</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>91.45371493151258</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970204</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676509</v>
       </c>
       <c r="M16" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692031</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793113</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186795</v>
+        <v>53.7965183618679</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144086</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119657</v>
       </c>
       <c r="K17" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286313</v>
       </c>
       <c r="L17" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046432</v>
       </c>
       <c r="M17" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336421</v>
       </c>
       <c r="N17" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459642</v>
       </c>
       <c r="O17" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811781</v>
       </c>
       <c r="P17" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422083</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002252</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>20.29762450082167</v>
       </c>
       <c r="K18" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>285.7627596518971</v>
+        <v>285.762759651897</v>
       </c>
       <c r="M18" t="n">
-        <v>378.6783934879409</v>
+        <v>378.6783934879408</v>
       </c>
       <c r="N18" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282939</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867615</v>
       </c>
       <c r="P18" t="n">
-        <v>56.17722358742201</v>
+        <v>231.5559236085353</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.45371493151264</v>
+        <v>58.50448190323635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970189</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676508</v>
       </c>
       <c r="M19" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692031</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793111</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186788</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144085</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119657</v>
       </c>
       <c r="K20" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286314</v>
       </c>
       <c r="L20" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046432</v>
       </c>
       <c r="M20" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336422</v>
       </c>
       <c r="N20" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459643</v>
       </c>
       <c r="O20" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811781</v>
       </c>
       <c r="P20" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422083</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002255</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082168</v>
       </c>
       <c r="K21" t="n">
-        <v>162.7270914936593</v>
+        <v>58.50448190323623</v>
       </c>
       <c r="L21" t="n">
         <v>285.7627596518971</v>
       </c>
       <c r="M21" t="n">
-        <v>274.4557838975185</v>
+        <v>378.6783934879408</v>
       </c>
       <c r="N21" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282939</v>
       </c>
       <c r="O21" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867615</v>
       </c>
       <c r="P21" t="n">
-        <v>231.5559236085354</v>
+        <v>231.5559236085353</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970204</v>
       </c>
       <c r="L22" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676509</v>
       </c>
       <c r="M22" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692031</v>
       </c>
       <c r="N22" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793113</v>
       </c>
       <c r="O22" t="n">
-        <v>53.79651836186795</v>
+        <v>53.7965183618679</v>
       </c>
       <c r="P22" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144086</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K23" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286314</v>
       </c>
       <c r="L23" t="n">
         <v>274.3746085046433</v>
       </c>
       <c r="M23" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336422</v>
       </c>
       <c r="N23" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459643</v>
       </c>
       <c r="O23" t="n">
         <v>277.1250097811782</v>
@@ -36378,7 +36378,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002261</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>20.29762450082171</v>
       </c>
       <c r="K24" t="n">
-        <v>162.7270914936593</v>
+        <v>162.7270914936592</v>
       </c>
       <c r="L24" t="n">
         <v>285.7627596518971</v>
@@ -36448,16 +36448,16 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N24" t="n">
-        <v>231.9281328071802</v>
+        <v>211.6305083063593</v>
       </c>
       <c r="O24" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867615</v>
       </c>
       <c r="P24" t="n">
-        <v>231.5559236085354</v>
+        <v>231.5559236085353</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151261</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970218</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676512</v>
       </c>
       <c r="M25" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793116</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186792</v>
       </c>
       <c r="P25" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144089</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K27" t="n">
         <v>162.7270914936593</v>
@@ -36682,13 +36682,13 @@
         <v>285.7627596518971</v>
       </c>
       <c r="M27" t="n">
-        <v>378.6783934879409</v>
+        <v>183.0020689660055</v>
       </c>
       <c r="N27" t="n">
         <v>407.306832828294</v>
       </c>
       <c r="O27" t="n">
-        <v>140.9172939656483</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P27" t="n">
         <v>231.5559236085354</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K30" t="n">
-        <v>78.80210640405852</v>
+        <v>58.50448190323679</v>
       </c>
       <c r="L30" t="n">
         <v>285.7627596518971</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L33" t="n">
         <v>285.7627596518971</v>
@@ -37165,10 +37165,10 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P33" t="n">
-        <v>218.9043150810814</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>162.7270914936593</v>
       </c>
       <c r="L36" t="n">
-        <v>110.3840596307843</v>
+        <v>201.8377745622963</v>
       </c>
       <c r="M36" t="n">
         <v>378.6783934879409</v>
@@ -37405,7 +37405,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>78.80210640405852</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L39" t="n">
         <v>285.7627596518971</v>
@@ -37639,7 +37639,7 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P39" t="n">
-        <v>231.5559236085354</v>
+        <v>147.6309385189352</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>45.40379396119666</v>
       </c>
       <c r="K41" t="n">
-        <v>176.3970685286314</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L41" t="n">
         <v>274.3746085046433</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>58.50448190323679</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>285.7627596518971</v>
+        <v>273.1111511244426</v>
       </c>
       <c r="M42" t="n">
         <v>378.6783934879409</v>
@@ -37879,7 +37879,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119657</v>
       </c>
       <c r="K44" t="n">
-        <v>176.3970685286314</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L44" t="n">
         <v>274.3746085046433</v>
@@ -38107,16 +38107,16 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N45" t="n">
-        <v>231.9281328071802</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O45" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P45" t="n">
-        <v>231.5559236085354</v>
+        <v>147.6309385189345</v>
       </c>
       <c r="Q45" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
